--- a/new.xlsx
+++ b/new.xlsx
@@ -9,7 +9,7 @@
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="162913" calcOnSave="0"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
@@ -85,6 +85,10 @@
     </r>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
+  <si>
+    <t>GP安装/总安装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -141,7 +145,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyFill="1" applyAlignment="1">
@@ -159,6 +163,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -440,10 +445,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:P28"/>
+  <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O1" sqref="O1"/>
+      <selection activeCell="T23" sqref="T23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -451,7 +456,7 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -500,8 +505,11 @@
       <c r="P1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q1" s="2" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42917</v>
       </c>
@@ -552,8 +560,12 @@
         <f>(N2/M2)</f>
         <v>2.9261435261939508E-3</v>
       </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q2" s="7">
+        <f>(E2/D2)</f>
+        <v>0.94948128101037443</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42918</v>
       </c>
@@ -604,8 +616,12 @@
         <f t="shared" ref="P3:P24" si="1">(N3/M3)</f>
         <v>3.5357491368483698E-3</v>
       </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q3" s="7">
+        <f>(E3/D3)</f>
+        <v>0.93664596273291922</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42919</v>
       </c>
@@ -656,8 +672,12 @@
         <f t="shared" si="1"/>
         <v>3.7127309828817595E-3</v>
       </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q4" s="7">
+        <f>(E4/D4)</f>
+        <v>0.93542074363992167</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42920</v>
       </c>
@@ -708,8 +728,12 @@
         <f t="shared" si="1"/>
         <v>3.449115722153694E-3</v>
       </c>
-    </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q5" s="7">
+        <f>(E5/D5)</f>
+        <v>0.93839634941329853</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42921</v>
       </c>
@@ -760,8 +784,12 @@
         <f t="shared" si="1"/>
         <v>2.6811000988192033E-3</v>
       </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q6" s="7">
+        <f>(E6/D6)</f>
+        <v>0.95284266196562362</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42922</v>
       </c>
@@ -812,8 +840,12 @@
         <f t="shared" si="1"/>
         <v>2.2089696077183998E-3</v>
       </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q7" s="7">
+        <f>(E7/D7)</f>
+        <v>0.94692307692307698</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42923</v>
       </c>
@@ -864,8 +896,12 @@
         <f t="shared" si="1"/>
         <v>1.9643550444637544E-3</v>
       </c>
-    </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q8" s="7">
+        <f>(E8/D8)</f>
+        <v>0.95486935866983369</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42924</v>
       </c>
@@ -916,8 +952,12 @@
         <f t="shared" si="1"/>
         <v>2.1069023954564193E-3</v>
       </c>
-    </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q9" s="7">
+        <f>(E9/D9)</f>
+        <v>0.97840531561461797</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42925</v>
       </c>
@@ -968,8 +1008,12 @@
         <f t="shared" si="1"/>
         <v>3.5553574460859228E-3</v>
       </c>
-    </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q10" s="7">
+        <f>(E10/D10)</f>
+        <v>0.9490022172949002</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42926</v>
       </c>
@@ -1020,8 +1064,12 @@
         <f t="shared" si="1"/>
         <v>2.8059579046866038E-3</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q11" s="7">
+        <f>(E11/D11)</f>
+        <v>0.92899408284023666</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42927</v>
       </c>
@@ -1072,8 +1120,12 @@
         <f t="shared" si="1"/>
         <v>2.5321122804734561E-3</v>
       </c>
-    </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q12" s="7">
+        <f>(E12/D12)</f>
+        <v>0.94508670520231219</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42928</v>
       </c>
@@ -1124,8 +1176,12 @@
         <f t="shared" si="1"/>
         <v>2.5592668650377885E-3</v>
       </c>
-    </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q13" s="7">
+        <f>(E13/D13)</f>
+        <v>0.95986622073578598</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42929</v>
       </c>
@@ -1176,8 +1232,12 @@
         <f t="shared" si="1"/>
         <v>2.5984302894035026E-3</v>
       </c>
-    </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q14" s="7">
+        <f>(E14/D14)</f>
+        <v>0.94478527607361962</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42930</v>
       </c>
@@ -1228,8 +1288,12 @@
         <f t="shared" si="1"/>
         <v>2.9906666125814503E-3</v>
       </c>
-    </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q15" s="7">
+        <f>(E15/D15)</f>
+        <v>0.90189873417721522</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42931</v>
       </c>
@@ -1280,8 +1344,12 @@
         <f t="shared" si="1"/>
         <v>3.3961441840002961E-3</v>
       </c>
-    </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q16" s="7">
+        <f>(E16/D16)</f>
+        <v>0.94230769230769229</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42932</v>
       </c>
@@ -1332,8 +1400,12 @@
         <f t="shared" si="1"/>
         <v>3.2287570458045703E-3</v>
       </c>
-    </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q17" s="7">
+        <f>(E17/D17)</f>
+        <v>0.91111111111111109</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42933</v>
       </c>
@@ -1384,8 +1456,12 @@
         <f t="shared" si="1"/>
         <v>3.4175483679239923E-3</v>
       </c>
-    </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q18" s="7">
+        <f>(E18/D18)</f>
+        <v>0.8797814207650273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42934</v>
       </c>
@@ -1436,8 +1512,12 @@
         <f t="shared" si="1"/>
         <v>2.8646687604948536E-3</v>
       </c>
-    </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q19" s="7">
+        <f>(E19/D19)</f>
+        <v>0.86904761904761907</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42935</v>
       </c>
@@ -1488,8 +1568,12 @@
         <f t="shared" si="1"/>
         <v>2.0416280662182303E-3</v>
       </c>
-    </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q20" s="7">
+        <f>(E20/D20)</f>
+        <v>0.95327102803738317</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42936</v>
       </c>
@@ -1540,8 +1624,12 @@
         <f t="shared" si="1"/>
         <v>1.8188632655760837E-3</v>
       </c>
-    </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q21" s="7">
+        <f>(E21/D21)</f>
+        <v>0.93488372093023253</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42937</v>
       </c>
@@ -1592,8 +1680,12 @@
         <f t="shared" si="1"/>
         <v>2.7873739847286091E-3</v>
       </c>
-    </row>
-    <row r="23" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q22" s="7">
+        <f>(E22/D22)</f>
+        <v>0.7137404580152672</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42938</v>
       </c>
@@ -1644,8 +1736,12 @@
         <f t="shared" si="1"/>
         <v>3.4890510948905108E-3</v>
       </c>
-    </row>
-    <row r="24" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q23" s="7">
+        <f>(E23/D23)</f>
+        <v>0.67672413793103448</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42939</v>
       </c>
@@ -1696,8 +1792,12 @@
         <f t="shared" si="1"/>
         <v>3.9271072402361756E-3</v>
       </c>
-    </row>
-    <row r="25" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q24" s="7">
+        <f>(E24/D24)</f>
+        <v>0.88235294117647056</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42940</v>
       </c>
@@ -1748,8 +1848,12 @@
         <f>(N25/M25)</f>
         <v>3.8907898263927216E-3</v>
       </c>
-    </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q25" s="7">
+        <f>(E25/D25)</f>
+        <v>0.91549295774647887</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42941</v>
       </c>
@@ -1800,8 +1904,12 @@
         <f t="shared" ref="P26:P28" si="3">(N26/M26)</f>
         <v>2.5741895689123432E-3</v>
       </c>
-    </row>
-    <row r="27" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q26" s="7">
+        <f>(E26/D26)</f>
+        <v>0.72881355932203384</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42942</v>
       </c>
@@ -1852,8 +1960,12 @@
         <f t="shared" si="3"/>
         <v>2.3955544391277978E-3</v>
       </c>
-    </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="Q27" s="7">
+        <f>(E27/D27)</f>
+        <v>0.9719626168224299</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42943</v>
       </c>
@@ -1904,9 +2016,14 @@
         <f t="shared" si="3"/>
         <v>1.9578824545385628E-3</v>
       </c>
+      <c r="Q28" s="7">
+        <f>(E28/D28)</f>
+        <v>0.6113989637305699</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/new.xlsx
+++ b/new.xlsx
@@ -19,17 +19,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>date</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>日活</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
-    <t>user</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
@@ -87,6 +83,14 @@
   </si>
   <si>
     <t>GP安装/总安装</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>总安装人数</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>总安装/日活</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -445,10 +449,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q28"/>
+  <dimension ref="A1:R28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T23" sqref="T23"/>
+      <selection activeCell="R8" sqref="R8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -456,60 +460,63 @@
     <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="D1" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="E1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="F1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="G1" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="H1" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="I1" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="J1" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="K1" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="L1" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="M1" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="3" t="s">
+      <c r="N1" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="O1" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="6" t="s">
+      <c r="Q1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="P1" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="Q1" s="2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R1" s="2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
         <v>42917</v>
       </c>
@@ -561,11 +568,15 @@
         <v>2.9261435261939508E-3</v>
       </c>
       <c r="Q2" s="7">
-        <f>(E2/D2)</f>
+        <f t="shared" ref="Q2:Q28" si="0">(E2/D2)</f>
         <v>0.94948128101037443</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R2" s="7">
+        <f>(C2/B2)</f>
+        <v>3.9066113814069874E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
         <v>42918</v>
       </c>
@@ -576,7 +587,7 @@
         <v>23737</v>
       </c>
       <c r="D3" s="4">
-        <f t="shared" ref="D3:D24" si="0">(K3+L3)</f>
+        <f t="shared" ref="D3:D24" si="1">(K3+L3)</f>
         <v>2415</v>
       </c>
       <c r="E3" s="4">
@@ -613,15 +624,19 @@
         <v>312.51</v>
       </c>
       <c r="P3" s="5">
-        <f t="shared" ref="P3:P24" si="1">(N3/M3)</f>
+        <f t="shared" ref="P3:P24" si="2">(N3/M3)</f>
         <v>3.5357491368483698E-3</v>
       </c>
       <c r="Q3" s="7">
-        <f>(E3/D3)</f>
+        <f t="shared" si="0"/>
         <v>0.93664596273291922</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R3" s="7">
+        <f t="shared" ref="R3:R28" si="3">(C3/B3)</f>
+        <v>3.5417521504614261E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
         <v>42919</v>
       </c>
@@ -632,7 +647,7 @@
         <v>29752</v>
       </c>
       <c r="D4" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2555</v>
       </c>
       <c r="E4" s="4">
@@ -669,15 +684,19 @@
         <v>445.22</v>
       </c>
       <c r="P4" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.7127309828817595E-3</v>
       </c>
       <c r="Q4" s="7">
-        <f>(E4/D4)</f>
+        <f t="shared" si="0"/>
         <v>0.93542074363992167</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R4" s="7">
+        <f t="shared" si="3"/>
+        <v>4.5704173317008955E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A5" s="1">
         <v>42920</v>
       </c>
@@ -688,7 +707,7 @@
         <v>39529</v>
       </c>
       <c r="D5" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>3068</v>
       </c>
       <c r="E5" s="4">
@@ -725,15 +744,19 @@
         <v>613.86</v>
       </c>
       <c r="P5" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.449115722153694E-3</v>
       </c>
       <c r="Q5" s="7">
-        <f>(E5/D5)</f>
+        <f t="shared" si="0"/>
         <v>0.93839634941329853</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R5" s="7">
+        <f t="shared" si="3"/>
+        <v>6.4222478923673554E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A6" s="1">
         <v>42921</v>
       </c>
@@ -744,7 +767,7 @@
         <v>39825</v>
       </c>
       <c r="D6" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>2269</v>
       </c>
       <c r="E6" s="4">
@@ -781,15 +804,19 @@
         <v>467.12</v>
       </c>
       <c r="P6" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.6811000988192033E-3</v>
       </c>
       <c r="Q6" s="7">
-        <f>(E6/D6)</f>
+        <f t="shared" si="0"/>
         <v>0.95284266196562362</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R6" s="7">
+        <f t="shared" si="3"/>
+        <v>6.1291955940587201E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A7" s="1">
         <v>42922</v>
       </c>
@@ -800,7 +827,7 @@
         <v>37165</v>
       </c>
       <c r="D7" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>1300</v>
       </c>
       <c r="E7" s="2">
@@ -837,15 +864,19 @@
         <v>359.95</v>
       </c>
       <c r="P7" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.2089696077183998E-3</v>
       </c>
       <c r="Q7" s="7">
-        <f>(E7/D7)</f>
+        <f t="shared" si="0"/>
         <v>0.94692307692307698</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R7" s="7">
+        <f t="shared" si="3"/>
+        <v>5.035546227709934E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A8" s="1">
         <v>42923</v>
       </c>
@@ -856,7 +887,7 @@
         <v>35618</v>
       </c>
       <c r="D8" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>842</v>
       </c>
       <c r="E8" s="2">
@@ -893,15 +924,19 @@
         <v>361.22</v>
       </c>
       <c r="P8" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.9643550444637544E-3</v>
       </c>
       <c r="Q8" s="7">
-        <f>(E8/D8)</f>
+        <f t="shared" si="0"/>
         <v>0.95486935866983369</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R8" s="7">
+        <f t="shared" si="3"/>
+        <v>4.9427293946551133E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A9" s="1">
         <v>42924</v>
       </c>
@@ -912,7 +947,7 @@
         <v>32827</v>
       </c>
       <c r="D9" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>602</v>
       </c>
       <c r="E9" s="2">
@@ -949,15 +984,19 @@
         <v>379.42</v>
       </c>
       <c r="P9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.1069023954564193E-3</v>
       </c>
       <c r="Q9" s="7">
-        <f>(E9/D9)</f>
+        <f t="shared" si="0"/>
         <v>0.97840531561461797</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R9" s="7">
+        <f t="shared" si="3"/>
+        <v>4.8436764547481366E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A10" s="1">
         <v>42925</v>
       </c>
@@ -968,7 +1007,7 @@
         <v>25508</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>451</v>
       </c>
       <c r="E10" s="2">
@@ -1005,15 +1044,19 @@
         <v>389.18</v>
       </c>
       <c r="P10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.5553574460859228E-3</v>
       </c>
       <c r="Q10" s="7">
-        <f>(E10/D10)</f>
+        <f t="shared" si="0"/>
         <v>0.9490022172949002</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R10" s="7">
+        <f t="shared" si="3"/>
+        <v>4.2582245600797292E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A11" s="1">
         <v>42926</v>
       </c>
@@ -1024,7 +1067,7 @@
         <v>27521</v>
       </c>
       <c r="D11" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>338</v>
       </c>
       <c r="E11" s="2">
@@ -1061,15 +1104,19 @@
         <v>339.46</v>
       </c>
       <c r="P11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8059579046866038E-3</v>
       </c>
       <c r="Q11" s="7">
-        <f>(E11/D11)</f>
+        <f t="shared" si="0"/>
         <v>0.92899408284023666</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R11" s="7">
+        <f t="shared" si="3"/>
+        <v>4.199204743464157E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A12" s="1">
         <v>42927</v>
       </c>
@@ -1080,7 +1127,7 @@
         <v>29452</v>
       </c>
       <c r="D12" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>346</v>
       </c>
       <c r="E12" s="2">
@@ -1117,15 +1164,19 @@
         <v>373.47</v>
       </c>
       <c r="P12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5321122804734561E-3</v>
       </c>
       <c r="Q12" s="7">
-        <f>(E12/D12)</f>
+        <f t="shared" si="0"/>
         <v>0.94508670520231219</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R12" s="7">
+        <f t="shared" si="3"/>
+        <v>3.5451149947579197E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A13" s="1">
         <v>42928</v>
       </c>
@@ -1136,7 +1187,7 @@
         <v>24396</v>
       </c>
       <c r="D13" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>299</v>
       </c>
       <c r="E13" s="2">
@@ -1173,15 +1224,19 @@
         <v>320.91000000000003</v>
       </c>
       <c r="P13" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5592668650377885E-3</v>
       </c>
       <c r="Q13" s="7">
-        <f>(E13/D13)</f>
+        <f t="shared" si="0"/>
         <v>0.95986622073578598</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R13" s="7">
+        <f t="shared" si="3"/>
+        <v>3.45714982116236E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A14" s="1">
         <v>42929</v>
       </c>
@@ -1192,7 +1247,7 @@
         <v>22781</v>
       </c>
       <c r="D14" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>326</v>
       </c>
       <c r="E14" s="2">
@@ -1229,15 +1284,19 @@
         <v>232.95</v>
       </c>
       <c r="P14" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.5984302894035026E-3</v>
       </c>
       <c r="Q14" s="7">
-        <f>(E14/D14)</f>
+        <f t="shared" si="0"/>
         <v>0.94478527607361962</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R14" s="7">
+        <f t="shared" si="3"/>
+        <v>3.2729346792291267E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A15" s="1">
         <v>42930</v>
       </c>
@@ -1248,7 +1307,7 @@
         <v>26577</v>
       </c>
       <c r="D15" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>316</v>
       </c>
       <c r="E15" s="2">
@@ -1285,15 +1344,19 @@
         <v>263.43</v>
       </c>
       <c r="P15" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.9906666125814503E-3</v>
       </c>
       <c r="Q15" s="7">
-        <f>(E15/D15)</f>
+        <f t="shared" si="0"/>
         <v>0.90189873417721522</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R15" s="7">
+        <f t="shared" si="3"/>
+        <v>4.048600881408914E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A16" s="1">
         <v>42931</v>
       </c>
@@ -1304,7 +1367,7 @@
         <v>24107</v>
       </c>
       <c r="D16" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>260</v>
       </c>
       <c r="E16" s="2">
@@ -1341,15 +1404,19 @@
         <v>342.46</v>
       </c>
       <c r="P16" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.3961441840002961E-3</v>
       </c>
       <c r="Q16" s="7">
-        <f>(E16/D16)</f>
+        <f t="shared" si="0"/>
         <v>0.94230769230769229</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R16" s="7">
+        <f t="shared" si="3"/>
+        <v>4.2272143031242493E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A17" s="1">
         <v>42932</v>
       </c>
@@ -1360,7 +1427,7 @@
         <v>21453</v>
       </c>
       <c r="D17" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>225</v>
       </c>
       <c r="E17" s="2">
@@ -1397,15 +1464,19 @@
         <v>391.93</v>
       </c>
       <c r="P17" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.2287570458045703E-3</v>
       </c>
       <c r="Q17" s="7">
-        <f>(E17/D17)</f>
+        <f t="shared" si="0"/>
         <v>0.91111111111111109</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R17" s="7">
+        <f t="shared" si="3"/>
+        <v>4.1718118299538927E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A18" s="1">
         <v>42933</v>
       </c>
@@ -1416,7 +1487,7 @@
         <v>21102</v>
       </c>
       <c r="D18" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>183</v>
       </c>
       <c r="E18" s="2">
@@ -1453,15 +1524,19 @@
         <v>306.24</v>
       </c>
       <c r="P18" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4175483679239923E-3</v>
       </c>
       <c r="Q18" s="7">
-        <f>(E18/D18)</f>
+        <f t="shared" si="0"/>
         <v>0.8797814207650273</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R18" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7756982590491865E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A19" s="1">
         <v>42934</v>
       </c>
@@ -1472,7 +1547,7 @@
         <v>27402</v>
       </c>
       <c r="D19" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>252</v>
       </c>
       <c r="E19" s="2">
@@ -1509,15 +1584,19 @@
         <v>313.26</v>
       </c>
       <c r="P19" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.8646687604948536E-3</v>
       </c>
       <c r="Q19" s="7">
-        <f>(E19/D19)</f>
+        <f t="shared" si="0"/>
         <v>0.86904761904761907</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R19" s="7">
+        <f t="shared" si="3"/>
+        <v>4.298932875650676E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A20" s="1">
         <v>42935</v>
       </c>
@@ -1528,7 +1607,7 @@
         <v>27884</v>
       </c>
       <c r="D20" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>214</v>
       </c>
       <c r="E20" s="2">
@@ -1565,15 +1644,19 @@
         <v>263.43</v>
       </c>
       <c r="P20" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.0416280662182303E-3</v>
       </c>
       <c r="Q20" s="7">
-        <f>(E20/D20)</f>
+        <f t="shared" si="0"/>
         <v>0.95327102803738317</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R20" s="7">
+        <f t="shared" si="3"/>
+        <v>4.0537790106011176E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A21" s="1">
         <v>42936</v>
       </c>
@@ -1584,7 +1667,7 @@
         <v>29300</v>
       </c>
       <c r="D21" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>215</v>
       </c>
       <c r="E21" s="2">
@@ -1621,15 +1704,19 @@
         <v>323.44</v>
       </c>
       <c r="P21" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>1.8188632655760837E-3</v>
       </c>
       <c r="Q21" s="7">
-        <f>(E21/D21)</f>
+        <f t="shared" si="0"/>
         <v>0.93488372093023253</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R21" s="7">
+        <f t="shared" si="3"/>
+        <v>2.9673380142330952E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A22" s="1">
         <v>42937</v>
       </c>
@@ -1640,7 +1727,7 @@
         <v>28345</v>
       </c>
       <c r="D22" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>262</v>
       </c>
       <c r="E22" s="2">
@@ -1677,15 +1764,19 @@
         <v>293.613</v>
       </c>
       <c r="P22" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>2.7873739847286091E-3</v>
       </c>
       <c r="Q22" s="7">
-        <f>(E22/D22)</f>
+        <f t="shared" si="0"/>
         <v>0.7137404580152672</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R22" s="7">
+        <f t="shared" si="3"/>
+        <v>3.4580989910573769E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A23" s="1">
         <v>42938</v>
       </c>
@@ -1696,7 +1787,7 @@
         <v>26087</v>
       </c>
       <c r="D23" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>232</v>
       </c>
       <c r="E23" s="2">
@@ -1733,15 +1824,19 @@
         <v>292.48599999999999</v>
       </c>
       <c r="P23" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.4890510948905108E-3</v>
       </c>
       <c r="Q23" s="7">
-        <f>(E23/D23)</f>
+        <f t="shared" si="0"/>
         <v>0.67672413793103448</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R23" s="7">
+        <f t="shared" si="3"/>
+        <v>3.6877140752866473E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A24" s="1">
         <v>42939</v>
       </c>
@@ -1752,7 +1847,7 @@
         <v>24735</v>
       </c>
       <c r="D24" s="4">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>136</v>
       </c>
       <c r="E24" s="2">
@@ -1789,15 +1884,19 @@
         <v>309.69</v>
       </c>
       <c r="P24" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>3.9271072402361756E-3</v>
       </c>
       <c r="Q24" s="7">
-        <f>(E24/D24)</f>
+        <f t="shared" si="0"/>
         <v>0.88235294117647056</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R24" s="7">
+        <f t="shared" si="3"/>
+        <v>3.8729163600379542E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A25" s="1">
         <v>42940</v>
       </c>
@@ -1849,11 +1948,15 @@
         <v>3.8907898263927216E-3</v>
       </c>
       <c r="Q25" s="7">
-        <f>(E25/D25)</f>
+        <f t="shared" si="0"/>
         <v>0.91549295774647887</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R25" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7770733132459197E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A26" s="1">
         <v>42941</v>
       </c>
@@ -1864,7 +1967,7 @@
         <v>29659</v>
       </c>
       <c r="D26" s="2">
-        <f t="shared" ref="D26:D28" si="2">(K26+L26)</f>
+        <f t="shared" ref="D26:D28" si="4">(K26+L26)</f>
         <v>177</v>
       </c>
       <c r="E26" s="2">
@@ -1901,15 +2004,19 @@
         <v>333.61500000000001</v>
       </c>
       <c r="P26" s="5">
-        <f t="shared" ref="P26:P28" si="3">(N26/M26)</f>
+        <f t="shared" ref="P26:P28" si="5">(N26/M26)</f>
         <v>2.5741895689123432E-3</v>
       </c>
       <c r="Q26" s="7">
-        <f>(E26/D26)</f>
+        <f t="shared" si="0"/>
         <v>0.72881355932203384</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R26" s="7">
+        <f t="shared" si="3"/>
+        <v>3.7883945530092951E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A27" s="1">
         <v>42942</v>
       </c>
@@ -1920,7 +2027,7 @@
         <v>24980</v>
       </c>
       <c r="D27" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>107</v>
       </c>
       <c r="E27" s="2">
@@ -1957,15 +2064,19 @@
         <v>280.93509999999998</v>
       </c>
       <c r="P27" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>2.3955544391277978E-3</v>
       </c>
       <c r="Q27" s="7">
-        <f>(E27/D27)</f>
+        <f t="shared" si="0"/>
         <v>0.9719626168224299</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+      <c r="R27" s="7">
+        <f t="shared" si="3"/>
+        <v>3.0923113108280411E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:18" x14ac:dyDescent="0.2">
       <c r="A28" s="1">
         <v>42943</v>
       </c>
@@ -1976,7 +2087,7 @@
         <v>21667</v>
       </c>
       <c r="D28" s="2">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>193</v>
       </c>
       <c r="E28" s="2">
@@ -2013,12 +2124,16 @@
         <v>196.9786</v>
       </c>
       <c r="P28" s="5">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>1.9578824545385628E-3</v>
       </c>
       <c r="Q28" s="7">
-        <f>(E28/D28)</f>
+        <f t="shared" si="0"/>
         <v>0.6113989637305699</v>
+      </c>
+      <c r="R28" s="7">
+        <f t="shared" si="3"/>
+        <v>2.805348898032747E-2</v>
       </c>
     </row>
   </sheetData>
